--- a/parameter_estimation/AIC_sp.xlsx
+++ b/parameter_estimation/AIC_sp.xlsx
@@ -56,13 +56,13 @@
     <t>lognormal</t>
   </si>
   <si>
-    <t>-28256.777892815</t>
+    <t>53760.3291506724</t>
   </si>
   <si>
     <t>laplace</t>
   </si>
   <si>
-    <t>-63893.0064745132</t>
+    <t>24707.2851328304</t>
   </si>
 </sst>
 </file>
